--- a/Drive/Logboeken/Logboek Daniël Lin.xlsx
+++ b/Drive/Logboeken/Logboek Daniël Lin.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\GitHub\UUIntroProject\Drive\Logboeken\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7340"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>Datum</t>
   </si>
@@ -46,90 +54,96 @@
     <t>globale opzet introproject</t>
   </si>
   <si>
-    <t xml:space="preserve">        16/11/2015</t>
-  </si>
-  <si>
     <t>maandaag</t>
   </si>
   <si>
     <t>werken aan projectdocument</t>
   </si>
   <si>
-    <t>17/11/2015</t>
-  </si>
-  <si>
     <t>Oefenen in Android Studio</t>
   </si>
   <si>
-    <t>18/11/2015</t>
-  </si>
-  <si>
     <t>Wekelijkse gesprek met begeleider</t>
   </si>
   <si>
-    <t>21/11/2015</t>
-  </si>
-  <si>
     <t>zaterdag</t>
   </si>
   <si>
-    <t>22/11/2015</t>
-  </si>
-  <si>
     <t>zondag</t>
   </si>
   <si>
     <t>projectdocument verbteren</t>
   </si>
   <si>
-    <t>23/11/2015</t>
-  </si>
-  <si>
     <t>maandag</t>
   </si>
   <si>
-    <t>Wekelijkse planning/afspraken maken /projectdocument</t>
-  </si>
-  <si>
-    <t>24/11/2015</t>
-  </si>
-  <si>
     <t>projectdocument verbteren en insturen voor feedback</t>
   </si>
   <si>
-    <t>25/11/2015</t>
-  </si>
-  <si>
     <t>werken aan interface</t>
   </si>
   <si>
-    <t>30/11/2015</t>
-  </si>
-  <si>
     <t>wekelijkse team bijeenkomst , projectdocument evaluatie, werken aan interface</t>
   </si>
   <si>
     <t>Projectdocument afmaken , globale interface afmaken zonder methoden</t>
+  </si>
+  <si>
+    <t>woendag</t>
+  </si>
+  <si>
+    <t>Wekelijkse gesprek met begeleider, werken aan project</t>
+  </si>
+  <si>
+    <t>Wekelijkse bijeenkomst en werken aan het project</t>
+  </si>
+  <si>
+    <t>Hoorcollege Valori</t>
+  </si>
+  <si>
+    <t>vrijdag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tussenproduct tonen, nieuwe taakverdeling </t>
+  </si>
+  <si>
+    <t>Aantal uren te besteden</t>
+  </si>
+  <si>
+    <t>nieuwe structuur en taakverdeling volledig proberen te maken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        16-11-2015</t>
+  </si>
+  <si>
+    <t>Wekelijkse planning/afspraken maken/projectdocument</t>
+  </si>
+  <si>
+    <t>Werken aan interface</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -138,50 +152,320 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+  <a:themeElements>
+    <a:clrScheme name="Kantoor">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Kantoor">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Kantoor">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="66.71"/>
+    <col min="3" max="3" width="66.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -200,10 +484,13 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>42288.0</v>
+        <v>42288</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -212,16 +499,20 @@
         <v>7</v>
       </c>
       <c r="D2" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="F2" t="str">
+        <v>2</v>
+      </c>
+      <c r="F2">
         <f>SUM(D:D)</f>
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>37.5</v>
+      </c>
+      <c r="G2">
+        <f>SUM(210,-F2)</f>
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>42319.0</v>
+        <v>42319</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -230,12 +521,12 @@
         <v>9</v>
       </c>
       <c r="D3" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>42319.0</v>
+        <v>42319</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
@@ -244,150 +535,248 @@
         <v>10</v>
       </c>
       <c r="D4" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D5" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>42325</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>42326</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>42329</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>42330</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>42331</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>42332</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D11" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>42333</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>42338</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>42338</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>42016</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>42197</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>42347</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>42347</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>42349</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>42349</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="3">
-        <v>2.0</v>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>42349</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Drive/Logboeken/Logboek Daniël Lin.xlsx
+++ b/Drive/Logboeken/Logboek Daniël Lin.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>Datum</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>Werken aan interface</t>
+  </si>
+  <si>
+    <t>online meeting, betere taakverdeling, en wekelijkse resultaten</t>
+  </si>
+  <si>
+    <t>Kleine powerpoint, infoactivity afmaken</t>
   </si>
 </sst>
 </file>
@@ -452,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -503,11 +509,11 @@
       </c>
       <c r="F2">
         <f>SUM(D:D)</f>
-        <v>37.5</v>
+        <v>39</v>
       </c>
       <c r="G2">
         <f>SUM(210,-F2)</f>
-        <v>172.5</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -774,6 +780,34 @@
       </c>
       <c r="D21" s="4">
         <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>42352</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>42352</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Drive/Logboeken/Logboek Daniël Lin.xlsx
+++ b/Drive/Logboeken/Logboek Daniël Lin.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>Datum</t>
   </si>
@@ -126,7 +126,10 @@
     <t>online meeting, betere taakverdeling, en wekelijkse resultaten</t>
   </si>
   <si>
-    <t>Kleine powerpoint, infoactivity afmaken</t>
+    <t>Kleine powerpoint maken, infoactivity afmaken</t>
+  </si>
+  <si>
+    <t>presentatie voorbereiden</t>
   </si>
 </sst>
 </file>
@@ -458,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -509,11 +512,11 @@
       </c>
       <c r="F2">
         <f>SUM(D:D)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2">
         <f>SUM(210,-F2)</f>
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -808,6 +811,20 @@
       </c>
       <c r="D23" s="4">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>42353</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Drive/Logboeken/Logboek Daniël Lin.xlsx
+++ b/Drive/Logboeken/Logboek Daniël Lin.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
   <si>
     <t>Datum</t>
   </si>
@@ -129,7 +129,22 @@
     <t>Kleine powerpoint maken, infoactivity afmaken</t>
   </si>
   <si>
-    <t>presentatie voorbereiden</t>
+    <t>presentatie voorbereiden, powerpoint uitbreiden</t>
+  </si>
+  <si>
+    <t>laatste voorbereiding presentatie</t>
+  </si>
+  <si>
+    <t>tussenpresentatie</t>
+  </si>
+  <si>
+    <t>projectdocument bijwerken</t>
+  </si>
+  <si>
+    <t>gebruikshandleiding maken</t>
+  </si>
+  <si>
+    <t>Globale opzet eindschermActivity en selectionActivity</t>
   </si>
 </sst>
 </file>
@@ -461,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -512,11 +527,11 @@
       </c>
       <c r="F2">
         <f>SUM(D:D)</f>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G2">
         <f>SUM(210,-F2)</f>
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -824,6 +839,76 @@
         <v>36</v>
       </c>
       <c r="D24" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>42354</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>42354</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>42356</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>42359</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>42359</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="4">
         <v>1</v>
       </c>
     </row>

--- a/Drive/Logboeken/Logboek Daniël Lin.xlsx
+++ b/Drive/Logboeken/Logboek Daniël Lin.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\GitHub\UUIntroProject\Drive\Logboeken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="80">
   <si>
     <t>Datum</t>
   </si>
@@ -63,27 +63,18 @@
     <t>Oefenen in Android Studio</t>
   </si>
   <si>
-    <t>Wekelijkse gesprek met begeleider</t>
-  </si>
-  <si>
     <t>zaterdag</t>
   </si>
   <si>
     <t>zondag</t>
   </si>
   <si>
-    <t>projectdocument verbteren</t>
-  </si>
-  <si>
     <t>maandag</t>
   </si>
   <si>
     <t>projectdocument verbteren en insturen voor feedback</t>
   </si>
   <si>
-    <t>werken aan interface</t>
-  </si>
-  <si>
     <t>wekelijkse team bijeenkomst , projectdocument evaluatie, werken aan interface</t>
   </si>
   <si>
@@ -144,7 +135,130 @@
     <t>gebruikshandleiding maken</t>
   </si>
   <si>
-    <t>Globale opzet eindschermActivity en selectionActivity</t>
+    <t>project document bijwerken , maken van een nieuwe UI overzicht</t>
+  </si>
+  <si>
+    <t>Skype vergadering en programmeren EindschermActivity</t>
+  </si>
+  <si>
+    <t>Projectdocument bijwerken</t>
+  </si>
+  <si>
+    <t>Wekelijkse gesprek met begeleider/ werken aan project</t>
+  </si>
+  <si>
+    <t>gesprek met begeleider en werken aan het project</t>
+  </si>
+  <si>
+    <t>projectdocument verbeteren</t>
+  </si>
+  <si>
+    <t>donderdag</t>
+  </si>
+  <si>
+    <t>skypevergadering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coordinaten van Nederlandse steden in database vullen </t>
+  </si>
+  <si>
+    <t>skype gesprek ,individuele gesprekken met afwezigen, werken aan het project</t>
+  </si>
+  <si>
+    <t>Skype vergadering met resultaten van de voorgaande week en werken aan project</t>
+  </si>
+  <si>
+    <t>coordinaten van Nederlandse wateren/gebieden/provincies invullen</t>
+  </si>
+  <si>
+    <t>database aanpassen</t>
+  </si>
+  <si>
+    <t>Database Europa vullen</t>
+  </si>
+  <si>
+    <t>disndag</t>
+  </si>
+  <si>
+    <t>Database Europa coordinaten invullen</t>
+  </si>
+  <si>
+    <t>wekelijkse gesprek met begeleider en werken aan project</t>
+  </si>
+  <si>
+    <t>werken aan interface + tutorials</t>
+  </si>
+  <si>
+    <t>EindschermActivity programmeren + tutorials en passend maken bij GameActivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maandag </t>
+  </si>
+  <si>
+    <t>ReadMe file</t>
+  </si>
+  <si>
+    <t>Werken aan Presentatie</t>
+  </si>
+  <si>
+    <t>code bestuderen /reviewen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">woensdag </t>
+  </si>
+  <si>
+    <t>controleren voor bugs</t>
+  </si>
+  <si>
+    <t>Code van andere bestuderen /reviewen</t>
+  </si>
+  <si>
+    <t>kijken of alles voorzien is van commentaar en of het ook klopt</t>
+  </si>
+  <si>
+    <t>werken aan presentatie</t>
+  </si>
+  <si>
+    <t>skypevergadering + werken aan het project</t>
+  </si>
+  <si>
+    <t>EindschermActivity programmeren + tutorials</t>
+  </si>
+  <si>
+    <t>code reviewen/ persoon wijzen op bepaalde onduidelijkheden in code</t>
+  </si>
+  <si>
+    <t>GastCollege Harald Vogt</t>
+  </si>
+  <si>
+    <t>EindschermActivity aanpassen</t>
+  </si>
+  <si>
+    <t>Alles in een strings.xml file gezet+ andere aanpassingen</t>
+  </si>
+  <si>
+    <t>Opzet eindschermActivity en selectionActivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database opschonen + takenovernemen </t>
+  </si>
+  <si>
+    <t>code reviewen, en oplossing voor kaarten proberen te vinden</t>
+  </si>
+  <si>
+    <t>database bestuderen hoe deze communiceert met de app</t>
+  </si>
+  <si>
+    <t>Werken aan project</t>
+  </si>
+  <si>
+    <t>Layout fix + sync problemen fix + bug ontdekt/proberen fixen</t>
+  </si>
+  <si>
+    <t>projectdocument bijwerken , opzet voor projectdossier en verschillende deliverables</t>
+  </si>
+  <si>
+    <t>bugs ontdekt</t>
   </si>
 </sst>
 </file>
@@ -476,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -509,7 +623,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -527,11 +641,11 @@
       </c>
       <c r="F2">
         <f>SUM(D:D)</f>
-        <v>46</v>
+        <v>130.5</v>
       </c>
       <c r="G2">
         <f>SUM(210,-F2)</f>
-        <v>164</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -564,7 +678,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -573,7 +687,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -598,7 +712,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D7" s="3">
         <v>2</v>
@@ -609,7 +723,7 @@
         <v>42329</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -623,13 +737,13 @@
         <v>42330</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -637,10 +751,10 @@
         <v>42331</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
@@ -654,7 +768,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -668,7 +782,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -679,10 +793,10 @@
         <v>42338</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
@@ -693,10 +807,10 @@
         <v>42338</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D14" s="3">
         <v>2</v>
@@ -707,10 +821,10 @@
         <v>42016</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
@@ -721,10 +835,10 @@
         <v>42197</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D16" s="3">
         <v>2</v>
@@ -738,7 +852,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D17" s="4">
         <v>2</v>
@@ -752,7 +866,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D18" s="4">
         <v>2</v>
@@ -763,10 +877,10 @@
         <v>42349</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D19" s="4">
         <v>2</v>
@@ -777,13 +891,13 @@
         <v>42349</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D20" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -791,13 +905,13 @@
         <v>42349</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D21" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -805,10 +919,10 @@
         <v>42352</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -819,13 +933,13 @@
         <v>42352</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D23" s="4">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -836,7 +950,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D24" s="4">
         <v>2</v>
@@ -850,10 +964,10 @@
         <v>8</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D25" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -864,10 +978,10 @@
         <v>8</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D26" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -875,13 +989,13 @@
         <v>42356</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D27" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -889,13 +1003,13 @@
         <v>42359</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D28" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -903,13 +1017,545 @@
         <v>42359</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="D29" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>42361</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>42365</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>42366</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>42369</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>42371</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="4">
         <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>42372</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>42373</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>42375</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>42375</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>42376</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>42376</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>42376</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>42377</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>42378</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>42379</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>42380</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>42380</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>42381</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>42382</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>42382</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>42383</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>42384</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>42385</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>42386</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>42387</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>42387</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>42387</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>42388</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>42388</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>42388</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>42389</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
+        <v>42389</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6">
+        <v>42389</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
+        <v>42389</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
+        <v>42390</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
+        <v>42390</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
+        <v>42390</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D66" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>42390</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Drive/Logboeken/Logboek Daniël Lin.xlsx
+++ b/Drive/Logboeken/Logboek Daniël Lin.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\GitHub\UUIntroProject\Drive\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="81">
   <si>
     <t>Datum</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>bugs ontdekt</t>
+  </si>
+  <si>
+    <t>Afronding product en eindverslag</t>
   </si>
 </sst>
 </file>
@@ -590,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -641,11 +644,11 @@
       </c>
       <c r="F2">
         <f>SUM(D:D)</f>
-        <v>130.5</v>
+        <v>132.5</v>
       </c>
       <c r="G2">
         <f>SUM(210,-F2)</f>
-        <v>79.5</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1556,6 +1559,20 @@
       </c>
       <c r="D67" s="4">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
+        <v>42391</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D68" s="4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Drive/Logboeken/Logboek Daniël Lin.xlsx
+++ b/Drive/Logboeken/Logboek Daniël Lin.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7340"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="82">
   <si>
     <t>Datum</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>Afronding product en eindverslag</t>
+  </si>
+  <si>
+    <t>code bestuderen / bugfix</t>
   </si>
 </sst>
 </file>
@@ -593,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -644,11 +647,11 @@
       </c>
       <c r="F2">
         <f>SUM(D:D)</f>
-        <v>132.5</v>
+        <v>134.5</v>
       </c>
       <c r="G2">
         <f>SUM(210,-F2)</f>
-        <v>77.5</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1573,6 +1576,34 @@
       </c>
       <c r="D68" s="4">
         <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
+        <v>42392</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D69" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
+        <v>42394</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Drive/Logboeken/Logboek Daniël Lin.xlsx
+++ b/Drive/Logboeken/Logboek Daniël Lin.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="83">
   <si>
     <t>Datum</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>code bestuderen / bugfix</t>
+  </si>
+  <si>
+    <t>database update</t>
   </si>
 </sst>
 </file>
@@ -596,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -647,11 +650,11 @@
       </c>
       <c r="F2">
         <f>SUM(D:D)</f>
-        <v>134.5</v>
+        <v>135</v>
       </c>
       <c r="G2">
         <f>SUM(210,-F2)</f>
-        <v>75.5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1603,6 +1606,20 @@
         <v>45</v>
       </c>
       <c r="D70" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
+        <v>42394</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D71" s="4">
         <v>0.5</v>
       </c>
     </row>

--- a/Drive/Logboeken/Logboek Daniël Lin.xlsx
+++ b/Drive/Logboeken/Logboek Daniël Lin.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="86">
   <si>
     <t>Datum</t>
   </si>
@@ -268,6 +268,15 @@
   </si>
   <si>
     <t>database update</t>
+  </si>
+  <si>
+    <t>presentatie voorbereiden</t>
+  </si>
+  <si>
+    <t>Testen</t>
+  </si>
+  <si>
+    <t>eindpresentatie</t>
   </si>
 </sst>
 </file>
@@ -599,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -650,11 +659,11 @@
       </c>
       <c r="F2">
         <f>SUM(D:D)</f>
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G2">
         <f>SUM(210,-F2)</f>
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1621,6 +1630,48 @@
       </c>
       <c r="D71" s="4">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
+        <v>42395</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D72" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
+        <v>42395</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
+        <v>42396</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D74" s="4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
